--- a/_FOR_USE/file for training/trainingData.xlsx
+++ b/_FOR_USE/file for training/trainingData.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alina\Python\diploma\_FOR_USE\file for training\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49703C6-F048-4170-B0A2-809E02230136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -835,8 +841,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,17 +901,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -943,9 +957,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -977,9 +991,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1011,9 +1043,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1186,14 +1236,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="F235" sqref="F235"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1219,18 +1271,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.460220131774384</v>
+        <v>0.46022013177438398</v>
       </c>
       <c r="C2">
-        <v>0.1993373195719237</v>
+        <v>0.19933731957192369</v>
       </c>
       <c r="D2">
-        <v>0.3404425486536923</v>
+        <v>0.34044254865369228</v>
       </c>
       <c r="E2" t="s">
         <v>258</v>
@@ -1245,18 +1297,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.5333440804444631</v>
+        <v>0.53334408044446313</v>
       </c>
       <c r="C3">
         <v>0.1346028942437538</v>
       </c>
       <c r="D3">
-        <v>0.332053025311783</v>
+        <v>0.33205302531178299</v>
       </c>
       <c r="E3" t="s">
         <v>258</v>
@@ -1271,18 +1323,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.5181320093167444</v>
+        <v>0.51813200931674441</v>
       </c>
       <c r="C4">
-        <v>0.1463677958936697</v>
+        <v>0.14636779589366969</v>
       </c>
       <c r="D4">
-        <v>0.3355001947895858</v>
+        <v>0.33550019478958581</v>
       </c>
       <c r="E4" t="s">
         <v>258</v>
@@ -1297,18 +1349,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7538377192982456</v>
+        <v>0.75383771929824561</v>
       </c>
       <c r="C5">
-        <v>0.02576754385964912</v>
+        <v>2.576754385964912E-2</v>
       </c>
       <c r="D5">
-        <v>0.2203947368421053</v>
+        <v>0.22039473684210531</v>
       </c>
       <c r="E5" t="s">
         <v>258</v>
@@ -1323,18 +1375,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.7448840381991815</v>
+        <v>0.74488403819918148</v>
       </c>
       <c r="C6">
-        <v>0.03342428376534789</v>
+        <v>3.3424283765347888E-2</v>
       </c>
       <c r="D6">
-        <v>0.2216916780354707</v>
+        <v>0.22169167803547071</v>
       </c>
       <c r="E6" t="s">
         <v>258</v>
@@ -1349,7 +1401,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1357,10 +1409,10 @@
         <v>0.7416918429003021</v>
       </c>
       <c r="C7">
-        <v>0.04305135951661632</v>
+        <v>4.3051359516616317E-2</v>
       </c>
       <c r="D7">
-        <v>0.2152567975830816</v>
+        <v>0.21525679758308161</v>
       </c>
       <c r="E7" t="s">
         <v>258</v>
@@ -1375,15 +1427,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.750534188034188</v>
+        <v>0.75053418803418803</v>
       </c>
       <c r="C8">
-        <v>0.03846153846153846</v>
+        <v>3.8461538461538457E-2</v>
       </c>
       <c r="D8">
         <v>0.2110042735042735</v>
@@ -1401,15 +1453,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.7281138790035587</v>
+        <v>0.72811387900355873</v>
       </c>
       <c r="C9">
-        <v>0.04270462633451957</v>
+        <v>4.2704626334519567E-2</v>
       </c>
       <c r="D9">
         <v>0.2291814946619217</v>
@@ -1427,7 +1479,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1435,10 +1487,10 @@
         <v>0.7159956474428727</v>
       </c>
       <c r="C10">
-        <v>0.06093579978237215</v>
+        <v>6.0935799782372152E-2</v>
       </c>
       <c r="D10">
-        <v>0.2230685527747552</v>
+        <v>0.22306855277475521</v>
       </c>
       <c r="E10" t="s">
         <v>258</v>
@@ -1453,15 +1505,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.7167868177136972</v>
+        <v>0.71678681771369723</v>
       </c>
       <c r="C11">
-        <v>0.05149330587023687</v>
+        <v>5.1493305870236872E-2</v>
       </c>
       <c r="D11">
         <v>0.2317198764160659</v>
@@ -1479,18 +1531,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.7304964539007093</v>
+        <v>0.73049645390070927</v>
       </c>
       <c r="C12">
-        <v>0.04334121355397951</v>
+        <v>4.3341213553979512E-2</v>
       </c>
       <c r="D12">
-        <v>0.2261623325453113</v>
+        <v>0.22616233254531129</v>
       </c>
       <c r="E12" t="s">
         <v>258</v>
@@ -1505,15 +1557,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.7284299858557284</v>
+        <v>0.72842998585572838</v>
       </c>
       <c r="C13">
-        <v>0.04384724186704385</v>
+        <v>4.3847241867043849E-2</v>
       </c>
       <c r="D13">
         <v>0.2277227722772277</v>
@@ -1531,18 +1583,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.7948490230905861</v>
+        <v>0.79484902309058614</v>
       </c>
       <c r="C14">
-        <v>0.01265541740674956</v>
+        <v>1.265541740674956E-2</v>
       </c>
       <c r="D14">
-        <v>0.1924955595026643</v>
+        <v>0.19249555950266431</v>
       </c>
       <c r="E14" t="s">
         <v>258</v>
@@ -1557,7 +1609,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1583,7 +1635,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1591,10 +1643,10 @@
         <v>0.7341587764020393</v>
       </c>
       <c r="C16">
-        <v>0.04005826656955572</v>
+        <v>4.0058266569555717E-2</v>
       </c>
       <c r="D16">
-        <v>0.225782957028405</v>
+        <v>0.22578295702840501</v>
       </c>
       <c r="E16" t="s">
         <v>258</v>
@@ -1609,15 +1661,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.7646761133603239</v>
+        <v>0.76467611336032393</v>
       </c>
       <c r="C17">
-        <v>0.03137651821862348</v>
+        <v>3.137651821862348E-2</v>
       </c>
       <c r="D17">
         <v>0.2039473684210526</v>
@@ -1635,18 +1687,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.7461928934010152</v>
+        <v>0.74619289340101524</v>
       </c>
       <c r="C18">
-        <v>0.03843364757070341</v>
+        <v>3.8433647570703409E-2</v>
       </c>
       <c r="D18">
-        <v>0.2153734590282814</v>
+        <v>0.21537345902828139</v>
       </c>
       <c r="E18" t="s">
         <v>258</v>
@@ -1661,18 +1713,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.7577388963660835</v>
+        <v>0.75773889636608349</v>
       </c>
       <c r="C19">
-        <v>0.03903095558546434</v>
+        <v>3.9030955585464343E-2</v>
       </c>
       <c r="D19">
-        <v>0.2032301480484522</v>
+        <v>0.20323014804845221</v>
       </c>
       <c r="E19" t="s">
         <v>258</v>
@@ -1687,15 +1739,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.7648376259798432</v>
+        <v>0.76483762597984317</v>
       </c>
       <c r="C20">
-        <v>0.02407614781634938</v>
+        <v>2.407614781634938E-2</v>
       </c>
       <c r="D20">
         <v>0.2110862262038074</v>
@@ -1713,18 +1765,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.4587928807548327</v>
+        <v>0.45879288075483271</v>
       </c>
       <c r="C21">
         <v>0.2034851901311325</v>
       </c>
       <c r="D21">
-        <v>0.3377219291140349</v>
+        <v>0.33772192911403492</v>
       </c>
       <c r="E21" t="s">
         <v>258</v>
@@ -1739,18 +1791,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.4729067693064398</v>
+        <v>0.47290676930643982</v>
       </c>
       <c r="C22">
         <v>0.1877886255665161</v>
       </c>
       <c r="D22">
-        <v>0.339304605127044</v>
+        <v>0.33930460512704402</v>
       </c>
       <c r="E22" t="s">
         <v>258</v>
@@ -1765,18 +1817,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.3592233009708738</v>
+        <v>0.35922330097087379</v>
       </c>
       <c r="C23">
-        <v>0.5728155339805825</v>
+        <v>0.57281553398058249</v>
       </c>
       <c r="D23">
-        <v>0.06796116504854369</v>
+        <v>6.7961165048543687E-2</v>
       </c>
       <c r="E23" t="s">
         <v>259</v>
@@ -1791,18 +1843,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.3401759530791789</v>
+        <v>0.34017595307917892</v>
       </c>
       <c r="C24">
-        <v>0.5982404692082112</v>
+        <v>0.59824046920821117</v>
       </c>
       <c r="D24">
-        <v>0.06158357771260997</v>
+        <v>6.1583577712609971E-2</v>
       </c>
       <c r="E24" t="s">
         <v>259</v>
@@ -1817,18 +1869,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.3599160545645331</v>
+        <v>0.35991605456453313</v>
       </c>
       <c r="C25">
-        <v>0.5802728226652676</v>
+        <v>0.58027282266526758</v>
       </c>
       <c r="D25">
-        <v>0.05981112277019937</v>
+        <v>5.9811122770199371E-2</v>
       </c>
       <c r="E25" t="s">
         <v>259</v>
@@ -1843,18 +1895,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.4687699683642308</v>
+        <v>0.46876996836423079</v>
       </c>
       <c r="C26">
-        <v>0.1889208164929378</v>
+        <v>0.18892081649293779</v>
       </c>
       <c r="D26">
-        <v>0.3423092151428314</v>
+        <v>0.34230921514283141</v>
       </c>
       <c r="E26" t="s">
         <v>258</v>
@@ -1869,18 +1921,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.3525554047942108</v>
+        <v>0.35255540479421082</v>
       </c>
       <c r="C27">
-        <v>0.5881953867028494</v>
+        <v>0.58819538670284943</v>
       </c>
       <c r="D27">
-        <v>0.05924920850293985</v>
+        <v>5.9249208502939847E-2</v>
       </c>
       <c r="E27" t="s">
         <v>259</v>
@@ -1895,18 +1947,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.3750835003340013</v>
+        <v>0.37508350033400129</v>
       </c>
       <c r="C28">
-        <v>0.5654642618570475</v>
+        <v>0.56546426185704746</v>
       </c>
       <c r="D28">
-        <v>0.05945223780895124</v>
+        <v>5.9452237808951237E-2</v>
       </c>
       <c r="E28" t="s">
         <v>259</v>
@@ -1921,7 +1973,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1929,10 +1981,10 @@
         <v>0.3474017743979721</v>
       </c>
       <c r="C29">
-        <v>0.5935361216730038</v>
+        <v>0.59353612167300385</v>
       </c>
       <c r="D29">
-        <v>0.05906210392902408</v>
+        <v>5.9062103929024078E-2</v>
       </c>
       <c r="E29" t="s">
         <v>259</v>
@@ -1947,18 +1999,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.3449612403100775</v>
+        <v>0.34496124031007752</v>
       </c>
       <c r="C30">
-        <v>0.5959636460839348</v>
+        <v>0.59596364608393482</v>
       </c>
       <c r="D30">
-        <v>0.0590751136059877</v>
+        <v>5.9075113605987703E-2</v>
       </c>
       <c r="E30" t="s">
         <v>259</v>
@@ -1973,18 +2025,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.3573814295257181</v>
+        <v>0.35738142952571811</v>
       </c>
       <c r="C31">
-        <v>0.5831663326653307</v>
+        <v>0.58316633266533069</v>
       </c>
       <c r="D31">
-        <v>0.05945223780895124</v>
+        <v>5.9452237808951237E-2</v>
       </c>
       <c r="E31" t="s">
         <v>259</v>
@@ -1999,18 +2051,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.3525904605263158</v>
+        <v>0.35259046052631582</v>
       </c>
       <c r="C32">
-        <v>0.5881990131578947</v>
+        <v>0.58819901315789469</v>
       </c>
       <c r="D32">
-        <v>0.05921052631578947</v>
+        <v>5.921052631578947E-2</v>
       </c>
       <c r="E32" t="s">
         <v>259</v>
@@ -2025,18 +2077,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.3465831745167438</v>
+        <v>0.34658317451674381</v>
       </c>
       <c r="C33">
-        <v>0.5943370541791451</v>
+        <v>0.59433705417914506</v>
       </c>
       <c r="D33">
-        <v>0.05907977130411108</v>
+        <v>5.907977130411108E-2</v>
       </c>
       <c r="E33" t="s">
         <v>259</v>
@@ -2051,18 +2103,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.7083510734529369</v>
+        <v>0.70835107345293691</v>
       </c>
       <c r="C34">
-        <v>0.06536072181089327</v>
+        <v>6.5360721810893266E-2</v>
       </c>
       <c r="D34">
-        <v>0.2262882047361698</v>
+        <v>0.22628820473616981</v>
       </c>
       <c r="E34" t="s">
         <v>259</v>
@@ -2077,18 +2129,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.6450635349905531</v>
+        <v>0.64506353499055313</v>
       </c>
       <c r="C35">
-        <v>0.08086540955062424</v>
+        <v>8.086540955062424E-2</v>
       </c>
       <c r="D35">
-        <v>0.2740710554588227</v>
+        <v>0.27407105545882271</v>
       </c>
       <c r="E35" t="s">
         <v>260</v>
@@ -2103,18 +2155,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.3913961771454355</v>
+        <v>0.39139617714543551</v>
       </c>
       <c r="C36">
-        <v>0.01505332987721168</v>
+        <v>1.5053329877211681E-2</v>
       </c>
       <c r="D36">
-        <v>0.5935504929773529</v>
+        <v>0.59355049297735285</v>
       </c>
       <c r="E36" t="s">
         <v>259</v>
@@ -2129,18 +2181,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.4912180829337167</v>
+        <v>0.49121808293371672</v>
       </c>
       <c r="C37">
-        <v>0.167929037092785</v>
+        <v>0.16792903709278501</v>
       </c>
       <c r="D37">
-        <v>0.3408528799734983</v>
+        <v>0.34085287997349828</v>
       </c>
       <c r="E37" t="s">
         <v>258</v>
@@ -2155,18 +2207,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.6707179337299563</v>
+        <v>0.67071793372995625</v>
       </c>
       <c r="C38">
-        <v>0.04881335110045524</v>
+        <v>4.8813351100455239E-2</v>
       </c>
       <c r="D38">
-        <v>0.2804687151695885</v>
+        <v>0.28046871516958849</v>
       </c>
       <c r="E38" t="s">
         <v>258</v>
@@ -2181,15 +2233,15 @@
         <v>267</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.6610434226322764</v>
+        <v>0.66104342263227645</v>
       </c>
       <c r="C39">
-        <v>0.05093321480349109</v>
+        <v>5.0933214803491091E-2</v>
       </c>
       <c r="D39">
         <v>0.2880233625642325</v>
@@ -2207,18 +2259,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.6829360432171055</v>
+        <v>0.68293604321710555</v>
       </c>
       <c r="C40">
-        <v>0.02327074912168033</v>
+        <v>2.3270749121680329E-2</v>
       </c>
       <c r="D40">
-        <v>0.2937932076612141</v>
+        <v>0.29379320766121408</v>
       </c>
       <c r="E40" t="s">
         <v>258</v>
@@ -2233,18 +2285,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.5458996328029376</v>
+        <v>0.54589963280293763</v>
       </c>
       <c r="C41">
         <v>0.1101591187270502</v>
       </c>
       <c r="D41">
-        <v>0.3439412484700122</v>
+        <v>0.34394124847001217</v>
       </c>
       <c r="E41" t="s">
         <v>259</v>
@@ -2259,18 +2311,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.5824726387136527</v>
+        <v>0.58247263871365274</v>
       </c>
       <c r="C42">
-        <v>0.0424136615709633</v>
+        <v>4.2413661570963303E-2</v>
       </c>
       <c r="D42">
-        <v>0.3751136997153839</v>
+        <v>0.37511369971538389</v>
       </c>
       <c r="E42" t="s">
         <v>258</v>
@@ -2285,18 +2337,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.5742024136694945</v>
+        <v>0.57420241366949454</v>
       </c>
       <c r="C43">
-        <v>0.01771689894524164</v>
+        <v>1.771689894524164E-2</v>
       </c>
       <c r="D43">
-        <v>0.4080806873852638</v>
+        <v>0.40808068738526382</v>
       </c>
       <c r="E43" t="s">
         <v>258</v>
@@ -2311,15 +2363,15 @@
         <v>267</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.7151086671903639</v>
+        <v>0.71510866719036392</v>
       </c>
       <c r="C44">
-        <v>0.08929039015449071</v>
+        <v>8.9290390154490709E-2</v>
       </c>
       <c r="D44">
         <v>0.1956009426551453</v>
@@ -2337,18 +2389,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.6777232720967494</v>
+        <v>0.67772327209674943</v>
       </c>
       <c r="C45">
-        <v>0.06598845503830029</v>
+        <v>6.5988455038300295E-2</v>
       </c>
       <c r="D45">
-        <v>0.2562882728649503</v>
+        <v>0.25628827286495032</v>
       </c>
       <c r="E45" t="s">
         <v>259</v>
@@ -2363,18 +2415,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.6710532801025186</v>
+        <v>0.67105328010251863</v>
       </c>
       <c r="C46">
-        <v>0.03171669377495195</v>
+        <v>3.1716693774951947E-2</v>
       </c>
       <c r="D46">
-        <v>0.2972300261225295</v>
+        <v>0.29723002612252952</v>
       </c>
       <c r="E46" t="s">
         <v>260</v>
@@ -2389,18 +2441,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.180423006057129</v>
+        <v>0.18042300605712899</v>
       </c>
       <c r="C47">
-        <v>0.410579196869564</v>
+        <v>0.41057919686956401</v>
       </c>
       <c r="D47">
-        <v>0.4089977970733071</v>
+        <v>0.40899779707330708</v>
       </c>
       <c r="E47" t="s">
         <v>258</v>
@@ -2415,15 +2467,15 @@
         <v>267</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.467330519175957</v>
+        <v>0.46733051917595703</v>
       </c>
       <c r="C48">
-        <v>0.1909377718447964</v>
+        <v>0.19093777184479641</v>
       </c>
       <c r="D48">
         <v>0.3417317089792466</v>
@@ -2441,7 +2493,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2449,10 +2501,10 @@
         <v>0.7041631247646204</v>
       </c>
       <c r="C49">
-        <v>0.07200946898369828</v>
+        <v>7.2009468983698283E-2</v>
       </c>
       <c r="D49">
-        <v>0.2238274062516813</v>
+        <v>0.22382740625168129</v>
       </c>
       <c r="E49" t="s">
         <v>260</v>
@@ -2467,18 +2519,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.6324032403240324</v>
+        <v>0.63240324032403239</v>
       </c>
       <c r="C50">
-        <v>0.05352535253525353</v>
+        <v>5.3525352535253527E-2</v>
       </c>
       <c r="D50">
-        <v>0.3140714071407141</v>
+        <v>0.31407140714071408</v>
       </c>
       <c r="E50" t="s">
         <v>259</v>
@@ -2493,18 +2545,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51">
-        <v>0.5611881892564924</v>
+        <v>0.56118818925649239</v>
       </c>
       <c r="C51">
-        <v>0.0256136606189968</v>
+        <v>2.5613660618996802E-2</v>
       </c>
       <c r="D51">
-        <v>0.4131981501245108</v>
+        <v>0.41319815012451078</v>
       </c>
       <c r="E51" t="s">
         <v>259</v>
@@ -2519,18 +2571,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.4506769825918762</v>
+        <v>0.45067698259187622</v>
       </c>
       <c r="C52">
-        <v>0.01740812379110251</v>
+        <v>1.7408123791102511E-2</v>
       </c>
       <c r="D52">
-        <v>0.5319148936170213</v>
+        <v>0.53191489361702127</v>
       </c>
       <c r="E52" t="s">
         <v>259</v>
@@ -2545,18 +2597,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.5640569395017794</v>
+        <v>0.56405693950177938</v>
       </c>
       <c r="C53">
-        <v>0.02277580071174377</v>
+        <v>2.277580071174377E-2</v>
       </c>
       <c r="D53">
-        <v>0.4131672597864769</v>
+        <v>0.41316725978647689</v>
       </c>
       <c r="E53" t="s">
         <v>259</v>
@@ -2571,18 +2623,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.5639472746704667</v>
+        <v>0.56394727467046668</v>
       </c>
       <c r="C54">
-        <v>0.02244389027431421</v>
+        <v>2.2443890274314211E-2</v>
       </c>
       <c r="D54">
-        <v>0.4136088350552191</v>
+        <v>0.41360883505521912</v>
       </c>
       <c r="E54" t="s">
         <v>259</v>
@@ -2597,18 +2649,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.5639472746704667</v>
+        <v>0.56394727467046668</v>
       </c>
       <c r="C55">
-        <v>0.02244389027431421</v>
+        <v>2.2443890274314211E-2</v>
       </c>
       <c r="D55">
-        <v>0.4136088350552191</v>
+        <v>0.41360883505521912</v>
       </c>
       <c r="E55" t="s">
         <v>259</v>
@@ -2623,18 +2675,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0.5640569395017794</v>
+        <v>0.56405693950177938</v>
       </c>
       <c r="C56">
-        <v>0.02277580071174377</v>
+        <v>2.277580071174377E-2</v>
       </c>
       <c r="D56">
-        <v>0.4131672597864769</v>
+        <v>0.41316725978647689</v>
       </c>
       <c r="E56" t="s">
         <v>259</v>
@@ -2649,18 +2701,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57">
-        <v>0.5621448863636364</v>
+        <v>0.56214488636363635</v>
       </c>
       <c r="C57">
-        <v>0.025390625</v>
+        <v>2.5390625E-2</v>
       </c>
       <c r="D57">
-        <v>0.4124644886363636</v>
+        <v>0.41246448863636359</v>
       </c>
       <c r="E57" t="s">
         <v>259</v>
@@ -2675,18 +2727,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58">
-        <v>0.5624556422995032</v>
+        <v>0.56245564229950318</v>
       </c>
       <c r="C58">
-        <v>0.02537260468417317</v>
+        <v>2.5372604684173169E-2</v>
       </c>
       <c r="D58">
-        <v>0.4121717530163236</v>
+        <v>0.41217175301632358</v>
       </c>
       <c r="E58" t="s">
         <v>259</v>
@@ -2701,18 +2753,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59">
-        <v>0.5562421358496935</v>
+        <v>0.55624213584969351</v>
       </c>
       <c r="C59">
         <v>0.1047092326856443</v>
       </c>
       <c r="D59">
-        <v>0.3390486314646622</v>
+        <v>0.33904863146466219</v>
       </c>
       <c r="E59" t="s">
         <v>258</v>
@@ -2727,7 +2779,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -2735,10 +2787,10 @@
         <v>0.5625</v>
       </c>
       <c r="C60">
-        <v>0.02303571428571428</v>
+        <v>2.3035714285714281E-2</v>
       </c>
       <c r="D60">
-        <v>0.4144642857142857</v>
+        <v>0.41446428571428567</v>
       </c>
       <c r="E60" t="s">
         <v>259</v>
@@ -2753,7 +2805,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2761,10 +2813,10 @@
         <v>0.5625</v>
       </c>
       <c r="C61">
-        <v>0.02303571428571428</v>
+        <v>2.3035714285714281E-2</v>
       </c>
       <c r="D61">
-        <v>0.4144642857142857</v>
+        <v>0.41446428571428567</v>
       </c>
       <c r="E61" t="s">
         <v>259</v>
@@ -2779,18 +2831,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62">
-        <v>0.4585741811175337</v>
+        <v>0.45857418111753367</v>
       </c>
       <c r="C62">
-        <v>0.01541425818882466</v>
+        <v>1.5414258188824659E-2</v>
       </c>
       <c r="D62">
-        <v>0.5260115606936416</v>
+        <v>0.52601156069364163</v>
       </c>
       <c r="E62" t="s">
         <v>259</v>
@@ -2805,18 +2857,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63">
-        <v>0.4377682403433477</v>
+        <v>0.43776824034334771</v>
       </c>
       <c r="C63">
-        <v>0.05436337625178827</v>
+        <v>5.4363376251788269E-2</v>
       </c>
       <c r="D63">
-        <v>0.5078683834048641</v>
+        <v>0.50786838340486407</v>
       </c>
       <c r="E63" t="s">
         <v>259</v>
@@ -2831,18 +2883,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64">
-        <v>0.4493307839388145</v>
+        <v>0.44933078393881448</v>
       </c>
       <c r="C64">
-        <v>0.01912045889101338</v>
+        <v>1.9120458891013381E-2</v>
       </c>
       <c r="D64">
-        <v>0.5315487571701721</v>
+        <v>0.53154875717017214</v>
       </c>
       <c r="E64" t="s">
         <v>259</v>
@@ -2857,18 +2909,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65">
-        <v>0.4595103578154426</v>
+        <v>0.45951035781544258</v>
       </c>
       <c r="C65">
-        <v>0.01506591337099812</v>
+        <v>1.506591337099812E-2</v>
       </c>
       <c r="D65">
-        <v>0.5254237288135594</v>
+        <v>0.52542372881355937</v>
       </c>
       <c r="E65" t="s">
         <v>259</v>
@@ -2883,7 +2935,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2891,10 +2943,10 @@
         <v>0.2768361581920904</v>
       </c>
       <c r="C66">
-        <v>0.07021791767554479</v>
+        <v>7.0217917675544791E-2</v>
       </c>
       <c r="D66">
-        <v>0.6529459241323649</v>
+        <v>0.65294592413236485</v>
       </c>
       <c r="E66" t="s">
         <v>259</v>
@@ -2909,7 +2961,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2935,15 +2987,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2222222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="C68">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D68">
         <v>0.1111111111111111</v>
@@ -2961,15 +3013,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69">
-        <v>0.3055555555555556</v>
+        <v>0.30555555555555558</v>
       </c>
       <c r="C69">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D69">
         <v>0.1111111111111111</v>
@@ -2987,18 +3039,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70">
-        <v>0.5102083685706648</v>
+        <v>0.51020836857066476</v>
       </c>
       <c r="C70">
-        <v>0.154350423666392</v>
+        <v>0.15435042366639201</v>
       </c>
       <c r="D70">
-        <v>0.3354412077629432</v>
+        <v>0.33544120776294323</v>
       </c>
       <c r="E70" t="s">
         <v>258</v>
@@ -3013,15 +3065,15 @@
         <v>267</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2777777777777778</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="C71">
-        <v>0.6111111111111112</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="D71">
         <v>0.1111111111111111</v>
@@ -3039,7 +3091,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3065,15 +3117,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C73">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="D73">
         <v>0.1111111111111111</v>
@@ -3091,15 +3143,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C74">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="D74">
         <v>0.1111111111111111</v>
@@ -3117,15 +3169,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75">
-        <v>0.3055555555555556</v>
+        <v>0.30555555555555558</v>
       </c>
       <c r="C75">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D75">
         <v>0.1111111111111111</v>
@@ -3143,7 +3195,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3151,7 +3203,7 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="C76">
-        <v>0.5277777777777778</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="D76">
         <v>0.1111111111111111</v>
@@ -3169,15 +3221,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
       <c r="B77">
-        <v>0.2777777777777778</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="C77">
-        <v>0.6111111111111112</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="D77">
         <v>0.1111111111111111</v>
@@ -3195,7 +3247,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3221,18 +3273,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79">
-        <v>0.7058823529411765</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0.2941176470588235</v>
+        <v>0.29411764705882348</v>
       </c>
       <c r="E79" t="s">
         <v>261</v>
@@ -3247,18 +3299,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80">
-        <v>0.8260869565217391</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0.1739130434782609</v>
+        <v>0.17391304347826089</v>
       </c>
       <c r="E80" t="s">
         <v>261</v>
@@ -3273,15 +3325,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81">
-        <v>0.4703885627570784</v>
+        <v>0.47038856275707841</v>
       </c>
       <c r="C81">
-        <v>0.1911704804121241</v>
+        <v>0.19117048041212409</v>
       </c>
       <c r="D81">
         <v>0.3384409568307975</v>
@@ -3299,18 +3351,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82">
-        <v>0.7619047619047619</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="C82">
-        <v>0.04761904761904762</v>
+        <v>4.7619047619047623E-2</v>
       </c>
       <c r="D82">
-        <v>0.1904761904761905</v>
+        <v>0.19047619047619049</v>
       </c>
       <c r="E82" t="s">
         <v>261</v>
@@ -3325,18 +3377,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83">
-        <v>0.8461538461538461</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0.1538461538461539</v>
+        <v>0.15384615384615391</v>
       </c>
       <c r="E83" t="s">
         <v>261</v>
@@ -3351,18 +3403,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C84">
-        <v>0.05555555555555555</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="D84">
-        <v>0.2777777777777778</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="E84" t="s">
         <v>261</v>
@@ -3377,7 +3429,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3385,10 +3437,10 @@
         <v>0.75</v>
       </c>
       <c r="C85">
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D85">
-        <v>0.1666666666666667</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="E85" t="s">
         <v>261</v>
@@ -3403,18 +3455,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86">
-        <v>0.8260869565217391</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0.1739130434782609</v>
+        <v>0.17391304347826089</v>
       </c>
       <c r="E86" t="s">
         <v>261</v>
@@ -3429,7 +3481,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3455,18 +3507,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88">
-        <v>0.7058823529411765</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="C88">
-        <v>0.05882352941176471</v>
+        <v>5.8823529411764712E-2</v>
       </c>
       <c r="D88">
-        <v>0.2352941176470588</v>
+        <v>0.23529411764705879</v>
       </c>
       <c r="E88" t="s">
         <v>261</v>
@@ -3481,18 +3533,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="B89">
-        <v>0.8260869565217391</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0.1739130434782609</v>
+        <v>0.17391304347826089</v>
       </c>
       <c r="E89" t="s">
         <v>261</v>
@@ -3507,7 +3559,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3533,7 +3585,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -3559,7 +3611,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -3585,7 +3637,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3611,7 +3663,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3619,10 +3671,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C94">
-        <v>0.1904761904761905</v>
+        <v>0.19047619047619049</v>
       </c>
       <c r="D94">
-        <v>0.2380952380952381</v>
+        <v>0.23809523809523811</v>
       </c>
       <c r="E94" t="s">
         <v>261</v>
@@ -3637,7 +3689,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -3648,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0.3571428571428572</v>
+        <v>0.35714285714285721</v>
       </c>
       <c r="E95" t="s">
         <v>261</v>
@@ -3663,7 +3715,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -3689,18 +3741,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
       <c r="B97">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0.2777777777777778</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="E97" t="s">
         <v>261</v>
@@ -3715,7 +3767,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -3741,7 +3793,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -3752,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>0.3571428571428572</v>
+        <v>0.35714285714285721</v>
       </c>
       <c r="E99" t="s">
         <v>261</v>
@@ -3767,18 +3819,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100">
-        <v>0.7826086956521739</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>0.2173913043478261</v>
+        <v>0.21739130434782611</v>
       </c>
       <c r="E100" t="s">
         <v>261</v>
@@ -3793,18 +3845,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="B101">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>0.2777777777777778</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="E101" t="s">
         <v>261</v>
@@ -3819,18 +3871,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>108</v>
       </c>
       <c r="B102">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>0.2631578947368421</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="E102" t="s">
         <v>261</v>
@@ -3845,7 +3897,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -3871,18 +3923,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>110</v>
       </c>
       <c r="B104">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E104" t="s">
         <v>261</v>
@@ -3897,18 +3949,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>111</v>
       </c>
       <c r="B105">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0.2777777777777778</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="E105" t="s">
         <v>261</v>
@@ -3923,18 +3975,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>112</v>
       </c>
       <c r="B106">
-        <v>0.7619047619047619</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0.2380952380952381</v>
+        <v>0.23809523809523811</v>
       </c>
       <c r="E106" t="s">
         <v>261</v>
@@ -3949,18 +4001,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
       <c r="B107">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0.2631578947368421</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="E107" t="s">
         <v>261</v>
@@ -3975,18 +4027,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>114</v>
       </c>
       <c r="B108">
-        <v>0.7058823529411765</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0.2941176470588235</v>
+        <v>0.29411764705882348</v>
       </c>
       <c r="E108" t="s">
         <v>261</v>
@@ -4001,18 +4053,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>115</v>
       </c>
       <c r="B109">
-        <v>0.7619047619047619</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0.2380952380952381</v>
+        <v>0.23809523809523811</v>
       </c>
       <c r="E109" t="s">
         <v>261</v>
@@ -4027,7 +4079,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -4038,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0.3571428571428572</v>
+        <v>0.35714285714285721</v>
       </c>
       <c r="E110" t="s">
         <v>261</v>
@@ -4053,7 +4105,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -4064,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>0.3571428571428572</v>
+        <v>0.35714285714285721</v>
       </c>
       <c r="E111" t="s">
         <v>261</v>
@@ -4079,7 +4131,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -4105,18 +4157,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>119</v>
       </c>
       <c r="B113">
-        <v>0.7619047619047619</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>0.2380952380952381</v>
+        <v>0.23809523809523811</v>
       </c>
       <c r="E113" t="s">
         <v>261</v>
@@ -4131,18 +4183,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>120</v>
       </c>
       <c r="B114">
-        <v>0.4690360713004694</v>
+        <v>0.46903607130046943</v>
       </c>
       <c r="C114">
-        <v>0.1945128892908941</v>
+        <v>0.19451288929089411</v>
       </c>
       <c r="D114">
-        <v>0.3364510394086365</v>
+        <v>0.33645103940863652</v>
       </c>
       <c r="E114" t="s">
         <v>258</v>
@@ -4157,12 +4209,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>121</v>
       </c>
       <c r="B115">
-        <v>0.8181818181818182</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -4183,18 +4235,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>122</v>
       </c>
       <c r="B116">
-        <v>0.4615384615384616</v>
+        <v>0.46153846153846162</v>
       </c>
       <c r="C116">
         <v>0.1196581196581197</v>
       </c>
       <c r="D116">
-        <v>0.4188034188034188</v>
+        <v>0.41880341880341881</v>
       </c>
       <c r="E116" t="s">
         <v>260</v>
@@ -4209,18 +4261,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>123</v>
       </c>
       <c r="B117">
-        <v>0.6360424028268551</v>
+        <v>0.63604240282685509</v>
       </c>
       <c r="C117">
-        <v>0.04946996466431095</v>
+        <v>4.9469964664310952E-2</v>
       </c>
       <c r="D117">
-        <v>0.3144876325088339</v>
+        <v>0.31448763250883388</v>
       </c>
       <c r="E117" t="s">
         <v>260</v>
@@ -4235,18 +4287,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>124</v>
       </c>
       <c r="B118">
-        <v>0.6735294117647059</v>
+        <v>0.67352941176470593</v>
       </c>
       <c r="C118">
-        <v>0.04705882352941176</v>
+        <v>4.7058823529411757E-2</v>
       </c>
       <c r="D118">
-        <v>0.2794117647058824</v>
+        <v>0.27941176470588241</v>
       </c>
       <c r="E118" t="s">
         <v>260</v>
@@ -4261,18 +4313,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>125</v>
       </c>
       <c r="B119">
-        <v>0.6069651741293532</v>
+        <v>0.60696517412935325</v>
       </c>
       <c r="C119">
-        <v>0.06965174129353234</v>
+        <v>6.965174129353234E-2</v>
       </c>
       <c r="D119">
-        <v>0.3233830845771145</v>
+        <v>0.32338308457711451</v>
       </c>
       <c r="E119" t="s">
         <v>260</v>
@@ -4287,15 +4339,15 @@
         <v>271</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>126</v>
       </c>
       <c r="B120">
-        <v>0.6513409961685823</v>
+        <v>0.65134099616858232</v>
       </c>
       <c r="C120">
-        <v>0.05363984674329502</v>
+        <v>5.3639846743295021E-2</v>
       </c>
       <c r="D120">
         <v>0.2950191570881226</v>
@@ -4313,15 +4365,15 @@
         <v>271</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>127</v>
       </c>
       <c r="B121">
-        <v>0.661849710982659</v>
+        <v>0.66184971098265899</v>
       </c>
       <c r="C121">
-        <v>0.04335260115606936</v>
+        <v>4.3352601156069363E-2</v>
       </c>
       <c r="D121">
         <v>0.2947976878612717</v>
@@ -4339,18 +4391,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
       <c r="B122">
-        <v>0.6261261261261262</v>
+        <v>0.62612612612612617</v>
       </c>
       <c r="C122">
-        <v>0.07657657657657657</v>
+        <v>7.6576576576576572E-2</v>
       </c>
       <c r="D122">
-        <v>0.2972972972972973</v>
+        <v>0.29729729729729731</v>
       </c>
       <c r="E122" t="s">
         <v>260</v>
@@ -4365,15 +4417,15 @@
         <v>271</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>129</v>
       </c>
       <c r="B123">
-        <v>0.6855345911949685</v>
+        <v>0.68553459119496851</v>
       </c>
       <c r="C123">
-        <v>0.03354297693920336</v>
+        <v>3.3542976939203363E-2</v>
       </c>
       <c r="D123">
         <v>0.2809224318658281</v>
@@ -4391,18 +4443,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>130</v>
       </c>
       <c r="B124">
-        <v>0.6514522821576764</v>
+        <v>0.65145228215767637</v>
       </c>
       <c r="C124">
-        <v>0.05809128630705394</v>
+        <v>5.8091286307053937E-2</v>
       </c>
       <c r="D124">
-        <v>0.2904564315352697</v>
+        <v>0.29045643153526968</v>
       </c>
       <c r="E124" t="s">
         <v>260</v>
@@ -4417,18 +4469,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>131</v>
       </c>
       <c r="B125">
-        <v>0.6103896103896104</v>
+        <v>0.61038961038961037</v>
       </c>
       <c r="C125">
-        <v>0.06493506493506493</v>
+        <v>6.4935064935064929E-2</v>
       </c>
       <c r="D125">
-        <v>0.3246753246753247</v>
+        <v>0.32467532467532467</v>
       </c>
       <c r="E125" t="s">
         <v>260</v>
@@ -4443,12 +4495,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>132</v>
       </c>
       <c r="B126">
-        <v>0.8181818181818182</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -4469,18 +4521,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>133</v>
       </c>
       <c r="B127">
-        <v>0.6898876404494382</v>
+        <v>0.68988764044943818</v>
       </c>
       <c r="C127">
-        <v>0.03820224719101124</v>
+        <v>3.8202247191011243E-2</v>
       </c>
       <c r="D127">
-        <v>0.2719101123595505</v>
+        <v>0.27191011235955048</v>
       </c>
       <c r="E127" t="s">
         <v>260</v>
@@ -4495,18 +4547,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>134</v>
       </c>
       <c r="B128">
-        <v>0.6820652173913043</v>
+        <v>0.68206521739130432</v>
       </c>
       <c r="C128">
-        <v>0.04076086956521739</v>
+        <v>4.0760869565217392E-2</v>
       </c>
       <c r="D128">
-        <v>0.2771739130434783</v>
+        <v>0.27717391304347833</v>
       </c>
       <c r="E128" t="s">
         <v>260</v>
@@ -4521,18 +4573,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>135</v>
       </c>
       <c r="B129">
-        <v>0.5185185185185185</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="C129">
-        <v>0.09876543209876543</v>
+        <v>9.8765432098765427E-2</v>
       </c>
       <c r="D129">
-        <v>0.382716049382716</v>
+        <v>0.38271604938271597</v>
       </c>
       <c r="E129" t="s">
         <v>259</v>
@@ -4547,18 +4599,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>136</v>
       </c>
       <c r="B130">
-        <v>0.6129032258064516</v>
+        <v>0.61290322580645162</v>
       </c>
       <c r="C130">
-        <v>0.07373271889400922</v>
+        <v>7.3732718894009217E-2</v>
       </c>
       <c r="D130">
-        <v>0.3133640552995391</v>
+        <v>0.31336405529953909</v>
       </c>
       <c r="E130" t="s">
         <v>260</v>
@@ -4573,18 +4625,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>137</v>
       </c>
       <c r="B131">
-        <v>0.684863523573201</v>
+        <v>0.68486352357320102</v>
       </c>
       <c r="C131">
-        <v>0.04466501240694789</v>
+        <v>4.4665012406947889E-2</v>
       </c>
       <c r="D131">
-        <v>0.2704714640198511</v>
+        <v>0.27047146401985112</v>
       </c>
       <c r="E131" t="s">
         <v>260</v>
@@ -4599,18 +4651,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>138</v>
       </c>
       <c r="B132">
-        <v>0.6088560885608856</v>
+        <v>0.60885608856088558</v>
       </c>
       <c r="C132">
-        <v>0.06642066420664207</v>
+        <v>6.6420664206642069E-2</v>
       </c>
       <c r="D132">
-        <v>0.3247232472324723</v>
+        <v>0.32472324723247231</v>
       </c>
       <c r="E132" t="s">
         <v>260</v>
@@ -4625,15 +4677,15 @@
         <v>271</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>139</v>
       </c>
       <c r="B133">
-        <v>0.6688311688311688</v>
+        <v>0.66883116883116878</v>
       </c>
       <c r="C133">
-        <v>0.04545454545454546</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="D133">
         <v>0.2857142857142857</v>
@@ -4651,18 +4703,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>140</v>
       </c>
       <c r="B134">
-        <v>0.6111111111111112</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="C134">
-        <v>0.06481481481481481</v>
+        <v>6.4814814814814811E-2</v>
       </c>
       <c r="D134">
-        <v>0.3240740740740741</v>
+        <v>0.32407407407407413</v>
       </c>
       <c r="E134" t="s">
         <v>260</v>
@@ -4677,18 +4729,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>141</v>
       </c>
       <c r="B135">
-        <v>0.7252336448598131</v>
+        <v>0.72523364485981312</v>
       </c>
       <c r="C135">
-        <v>0.02990654205607477</v>
+        <v>2.9906542056074771E-2</v>
       </c>
       <c r="D135">
-        <v>0.2448598130841121</v>
+        <v>0.24485981308411209</v>
       </c>
       <c r="E135" t="s">
         <v>260</v>
@@ -4703,18 +4755,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>142</v>
       </c>
       <c r="B136">
-        <v>0.6233766233766234</v>
+        <v>0.62337662337662336</v>
       </c>
       <c r="C136">
-        <v>0.06060606060606061</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="D136">
-        <v>0.316017316017316</v>
+        <v>0.31601731601731597</v>
       </c>
       <c r="E136" t="s">
         <v>260</v>
@@ -4729,18 +4781,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>143</v>
       </c>
       <c r="B137">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>0.2222222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="E137" t="s">
         <v>261</v>
@@ -4755,18 +4807,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>144</v>
       </c>
       <c r="B138">
-        <v>0.7163814180929096</v>
+        <v>0.71638141809290956</v>
       </c>
       <c r="C138">
-        <v>0.03667481662591687</v>
+        <v>3.6674816625916873E-2</v>
       </c>
       <c r="D138">
-        <v>0.2469437652811736</v>
+        <v>0.24694376528117359</v>
       </c>
       <c r="E138" t="s">
         <v>260</v>
@@ -4781,7 +4833,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -4789,10 +4841,10 @@
         <v>0.6</v>
       </c>
       <c r="C139">
-        <v>0.06363636363636363</v>
+        <v>6.363636363636363E-2</v>
       </c>
       <c r="D139">
-        <v>0.3363636363636364</v>
+        <v>0.33636363636363642</v>
       </c>
       <c r="E139" t="s">
         <v>260</v>
@@ -4807,18 +4859,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>146</v>
       </c>
       <c r="B140">
-        <v>0.6244541484716157</v>
+        <v>0.62445414847161573</v>
       </c>
       <c r="C140">
-        <v>0.07860262008733625</v>
+        <v>7.8602620087336247E-2</v>
       </c>
       <c r="D140">
-        <v>0.2969432314410481</v>
+        <v>0.29694323144104812</v>
       </c>
       <c r="E140" t="s">
         <v>260</v>
@@ -4833,18 +4885,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>147</v>
       </c>
       <c r="B141">
-        <v>0.6628352490421456</v>
+        <v>0.66283524904214564</v>
       </c>
       <c r="C141">
-        <v>0.05363984674329502</v>
+        <v>5.3639846743295021E-2</v>
       </c>
       <c r="D141">
-        <v>0.2835249042145594</v>
+        <v>0.28352490421455939</v>
       </c>
       <c r="E141" t="s">
         <v>260</v>
@@ -4859,7 +4911,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -4867,7 +4919,7 @@
         <v>0.7016574585635359</v>
       </c>
       <c r="C142">
-        <v>0.04419889502762431</v>
+        <v>4.4198895027624308E-2</v>
       </c>
       <c r="D142">
         <v>0.2541436464088398</v>
@@ -4885,18 +4937,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>149</v>
       </c>
       <c r="B143">
-        <v>0.6457142857142857</v>
+        <v>0.64571428571428569</v>
       </c>
       <c r="C143">
-        <v>0.04857142857142857</v>
+        <v>4.8571428571428571E-2</v>
       </c>
       <c r="D143">
-        <v>0.3057142857142857</v>
+        <v>0.30571428571428572</v>
       </c>
       <c r="E143" t="s">
         <v>260</v>
@@ -4911,18 +4963,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>150</v>
       </c>
       <c r="B144">
-        <v>0.5676855895196506</v>
+        <v>0.56768558951965065</v>
       </c>
       <c r="C144">
-        <v>0.08296943231441048</v>
+        <v>8.296943231441048E-2</v>
       </c>
       <c r="D144">
-        <v>0.3493449781659388</v>
+        <v>0.34934497816593879</v>
       </c>
       <c r="E144" t="s">
         <v>259</v>
@@ -4937,18 +4989,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>151</v>
       </c>
       <c r="B145">
-        <v>0.6676829268292683</v>
+        <v>0.66768292682926833</v>
       </c>
       <c r="C145">
-        <v>0.05182926829268292</v>
+        <v>5.1829268292682917E-2</v>
       </c>
       <c r="D145">
-        <v>0.2804878048780488</v>
+        <v>0.28048780487804881</v>
       </c>
       <c r="E145" t="s">
         <v>260</v>
@@ -4963,18 +5015,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>152</v>
       </c>
       <c r="B146">
-        <v>0.7054108216432866</v>
+        <v>0.70541082164328661</v>
       </c>
       <c r="C146">
-        <v>0.03406813627254509</v>
+        <v>3.406813627254509E-2</v>
       </c>
       <c r="D146">
-        <v>0.2605210420841683</v>
+        <v>0.26052104208416832</v>
       </c>
       <c r="E146" t="s">
         <v>260</v>
@@ -4989,18 +5041,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>153</v>
       </c>
       <c r="B147">
-        <v>0.7022132796780685</v>
+        <v>0.70221327967806846</v>
       </c>
       <c r="C147">
-        <v>0.03420523138832998</v>
+        <v>3.4205231388329982E-2</v>
       </c>
       <c r="D147">
-        <v>0.2635814889336016</v>
+        <v>0.26358148893360162</v>
       </c>
       <c r="E147" t="s">
         <v>260</v>
@@ -5015,7 +5067,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -5041,18 +5093,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>155</v>
       </c>
       <c r="B149">
-        <v>0.6519174041297935</v>
+        <v>0.65191740412979349</v>
       </c>
       <c r="C149">
-        <v>0.05014749262536873</v>
+        <v>5.0147492625368731E-2</v>
       </c>
       <c r="D149">
-        <v>0.2979351032448377</v>
+        <v>0.29793510324483768</v>
       </c>
       <c r="E149" t="s">
         <v>260</v>
@@ -5067,18 +5119,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>156</v>
       </c>
       <c r="B150">
-        <v>0.6055776892430279</v>
+        <v>0.60557768924302791</v>
       </c>
       <c r="C150">
-        <v>0.07569721115537849</v>
+        <v>7.5697211155378488E-2</v>
       </c>
       <c r="D150">
-        <v>0.3187250996015936</v>
+        <v>0.31872509960159362</v>
       </c>
       <c r="E150" t="s">
         <v>260</v>
@@ -5093,18 +5145,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>157</v>
       </c>
       <c r="B151">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C151">
-        <v>0.05322128851540616</v>
+        <v>5.3221288515406161E-2</v>
       </c>
       <c r="D151">
-        <v>0.2801120448179272</v>
+        <v>0.28011204481792717</v>
       </c>
       <c r="E151" t="s">
         <v>260</v>
@@ -5119,7 +5171,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -5127,10 +5179,10 @@
         <v>0.6556291390728477</v>
       </c>
       <c r="C152">
-        <v>0.05629139072847682</v>
+        <v>5.6291390728476817E-2</v>
       </c>
       <c r="D152">
-        <v>0.2880794701986755</v>
+        <v>0.28807947019867552</v>
       </c>
       <c r="E152" t="s">
         <v>260</v>
@@ -5145,18 +5197,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>159</v>
       </c>
       <c r="B153">
-        <v>0.6756756756756757</v>
+        <v>0.67567567567567566</v>
       </c>
       <c r="C153">
-        <v>0.04668304668304668</v>
+        <v>4.6683046683046681E-2</v>
       </c>
       <c r="D153">
-        <v>0.2776412776412777</v>
+        <v>0.27764127764127772</v>
       </c>
       <c r="E153" t="s">
         <v>260</v>
@@ -5171,18 +5223,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>160</v>
       </c>
       <c r="B154">
-        <v>0.6268656716417911</v>
+        <v>0.62686567164179108</v>
       </c>
       <c r="C154">
-        <v>0.06343283582089553</v>
+        <v>6.3432835820895525E-2</v>
       </c>
       <c r="D154">
-        <v>0.3097014925373134</v>
+        <v>0.30970149253731338</v>
       </c>
       <c r="E154" t="s">
         <v>260</v>
@@ -5197,18 +5249,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>161</v>
       </c>
       <c r="B155">
-        <v>0.6585365853658537</v>
+        <v>0.65853658536585369</v>
       </c>
       <c r="C155">
-        <v>0.05182926829268292</v>
+        <v>5.1829268292682917E-2</v>
       </c>
       <c r="D155">
-        <v>0.2896341463414634</v>
+        <v>0.28963414634146339</v>
       </c>
       <c r="E155" t="s">
         <v>260</v>
@@ -5223,18 +5275,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>162</v>
       </c>
       <c r="B156">
-        <v>0.6658595641646489</v>
+        <v>0.66585956416464886</v>
       </c>
       <c r="C156">
-        <v>0.04358353510895883</v>
+        <v>4.3583535108958828E-2</v>
       </c>
       <c r="D156">
-        <v>0.2905569007263922</v>
+        <v>0.29055690072639218</v>
       </c>
       <c r="E156" t="s">
         <v>260</v>
@@ -5249,18 +5301,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>163</v>
       </c>
       <c r="B157">
-        <v>0.6401384083044983</v>
+        <v>0.64013840830449831</v>
       </c>
       <c r="C157">
-        <v>0.06920415224913495</v>
+        <v>6.9204152249134954E-2</v>
       </c>
       <c r="D157">
-        <v>0.2906574394463668</v>
+        <v>0.29065743944636679</v>
       </c>
       <c r="E157" t="s">
         <v>260</v>
@@ -5275,18 +5327,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>164</v>
       </c>
       <c r="B158">
-        <v>0.6856617647058824</v>
+        <v>0.68566176470588236</v>
       </c>
       <c r="C158">
-        <v>0.03492647058823529</v>
+        <v>3.4926470588235288E-2</v>
       </c>
       <c r="D158">
-        <v>0.2794117647058824</v>
+        <v>0.27941176470588241</v>
       </c>
       <c r="E158" t="s">
         <v>260</v>
@@ -5301,18 +5353,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>165</v>
       </c>
       <c r="B159">
-        <v>0.7368421052631579</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>0.2631578947368421</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="E159" t="s">
         <v>261</v>
@@ -5327,15 +5379,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>166</v>
       </c>
       <c r="B160">
-        <v>0.6590909090909091</v>
+        <v>0.65909090909090906</v>
       </c>
       <c r="C160">
-        <v>0.05519480519480519</v>
+        <v>5.5194805194805192E-2</v>
       </c>
       <c r="D160">
         <v>0.2857142857142857</v>
@@ -5353,18 +5405,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>167</v>
       </c>
       <c r="B161">
-        <v>0.62751677852349</v>
+        <v>0.62751677852348997</v>
       </c>
       <c r="C161">
-        <v>0.06040268456375839</v>
+        <v>6.0402684563758392E-2</v>
       </c>
       <c r="D161">
-        <v>0.3120805369127517</v>
+        <v>0.31208053691275173</v>
       </c>
       <c r="E161" t="s">
         <v>260</v>
@@ -5379,7 +5431,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -5387,7 +5439,7 @@
         <v>0.689453125</v>
       </c>
       <c r="C162">
-        <v>0.0390625</v>
+        <v>3.90625E-2</v>
       </c>
       <c r="D162">
         <v>0.271484375</v>
@@ -5405,7 +5457,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -5413,10 +5465,10 @@
         <v>0.6827586206896552</v>
       </c>
       <c r="C163">
-        <v>0.04137931034482759</v>
+        <v>4.1379310344827593E-2</v>
       </c>
       <c r="D163">
-        <v>0.2758620689655172</v>
+        <v>0.27586206896551718</v>
       </c>
       <c r="E163" t="s">
         <v>260</v>
@@ -5431,18 +5483,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>170</v>
       </c>
       <c r="B164">
-        <v>0.6302816901408451</v>
+        <v>0.63028169014084512</v>
       </c>
       <c r="C164">
-        <v>0.06690140845070422</v>
+        <v>6.6901408450704219E-2</v>
       </c>
       <c r="D164">
-        <v>0.3028169014084507</v>
+        <v>0.30281690140845069</v>
       </c>
       <c r="E164" t="s">
         <v>260</v>
@@ -5457,18 +5509,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>171</v>
       </c>
       <c r="B165">
-        <v>0.6851063829787234</v>
+        <v>0.68510638297872339</v>
       </c>
       <c r="C165">
-        <v>0.04468085106382979</v>
+        <v>4.4680851063829789E-2</v>
       </c>
       <c r="D165">
-        <v>0.2702127659574468</v>
+        <v>0.27021276595744681</v>
       </c>
       <c r="E165" t="s">
         <v>260</v>
@@ -5483,18 +5535,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>172</v>
       </c>
       <c r="B166">
-        <v>0.6242603550295858</v>
+        <v>0.62426035502958577</v>
       </c>
       <c r="C166">
-        <v>0.0621301775147929</v>
+        <v>6.2130177514792898E-2</v>
       </c>
       <c r="D166">
-        <v>0.3136094674556213</v>
+        <v>0.31360946745562129</v>
       </c>
       <c r="E166" t="s">
         <v>260</v>
@@ -5509,18 +5561,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>173</v>
       </c>
       <c r="B167">
-        <v>0.6684350132625995</v>
+        <v>0.66843501326259946</v>
       </c>
       <c r="C167">
-        <v>0.04509283819628647</v>
+        <v>4.5092838196286469E-2</v>
       </c>
       <c r="D167">
-        <v>0.2864721485411141</v>
+        <v>0.28647214854111408</v>
       </c>
       <c r="E167" t="s">
         <v>260</v>
@@ -5535,18 +5587,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>174</v>
       </c>
       <c r="B168">
-        <v>0.6289752650176679</v>
+        <v>0.62897526501766787</v>
       </c>
       <c r="C168">
-        <v>0.06007067137809187</v>
+        <v>6.0070671378091869E-2</v>
       </c>
       <c r="D168">
-        <v>0.3109540636042403</v>
+        <v>0.31095406360424033</v>
       </c>
       <c r="E168" t="s">
         <v>260</v>
@@ -5561,18 +5613,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>175</v>
       </c>
       <c r="B169">
-        <v>0.7209302325581395</v>
+        <v>0.72093023255813948</v>
       </c>
       <c r="C169">
-        <v>0.03156146179401993</v>
+        <v>3.1561461794019932E-2</v>
       </c>
       <c r="D169">
-        <v>0.2475083056478405</v>
+        <v>0.24750830564784049</v>
       </c>
       <c r="E169" t="s">
         <v>260</v>
@@ -5587,7 +5639,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -5613,18 +5665,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>177</v>
       </c>
       <c r="B171">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
       <c r="D171">
-        <v>0.2222222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="E171" t="s">
         <v>261</v>
@@ -5639,18 +5691,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>178</v>
       </c>
       <c r="B172">
-        <v>0.8421052631578947</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="C172">
         <v>0</v>
       </c>
       <c r="D172">
-        <v>0.1578947368421053</v>
+        <v>0.15789473684210531</v>
       </c>
       <c r="E172" t="s">
         <v>261</v>
@@ -5665,7 +5717,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -5691,7 +5743,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -5717,18 +5769,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>181</v>
       </c>
       <c r="B175">
-        <v>0.4564849015242189</v>
+        <v>0.45648490152421889</v>
       </c>
       <c r="C175">
-        <v>0.2004307108874618</v>
+        <v>0.20043071088746181</v>
       </c>
       <c r="D175">
-        <v>0.3430843875883193</v>
+        <v>0.34308438758831927</v>
       </c>
       <c r="E175" t="s">
         <v>258</v>
@@ -5743,18 +5795,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>182</v>
       </c>
       <c r="B176">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="C176">
         <v>0</v>
       </c>
       <c r="D176">
-        <v>0.2222222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="E176" t="s">
         <v>261</v>
@@ -5769,18 +5821,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>183</v>
       </c>
       <c r="B177">
-        <v>0.8461538461538461</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="C177">
         <v>0</v>
       </c>
       <c r="D177">
-        <v>0.1538461538461539</v>
+        <v>0.15384615384615391</v>
       </c>
       <c r="E177" t="s">
         <v>261</v>
@@ -5795,18 +5847,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>184</v>
       </c>
       <c r="B178">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="C178">
         <v>0</v>
       </c>
       <c r="D178">
-        <v>0.2222222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="E178" t="s">
         <v>261</v>
@@ -5821,18 +5873,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>185</v>
       </c>
       <c r="B179">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="C179">
         <v>0</v>
       </c>
       <c r="D179">
-        <v>0.2222222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="E179" t="s">
         <v>261</v>
@@ -5847,18 +5899,18 @@
         <v>270</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>186</v>
       </c>
       <c r="B180">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C180">
         <v>0</v>
       </c>
       <c r="D180">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E180" t="s">
         <v>261</v>
@@ -5873,15 +5925,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>187</v>
       </c>
       <c r="B181">
-        <v>0.8004357298474946</v>
+        <v>0.80043572984749456</v>
       </c>
       <c r="C181">
-        <v>0.00261437908496732</v>
+        <v>2.6143790849673201E-3</v>
       </c>
       <c r="D181">
         <v>0.1969498910675381</v>
@@ -5899,12 +5951,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>188</v>
       </c>
       <c r="B182">
-        <v>0.7983193277310925</v>
+        <v>0.79831932773109249</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -5925,12 +5977,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>189</v>
       </c>
       <c r="B183">
-        <v>0.7928221859706363</v>
+        <v>0.79282218597063625</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -5951,18 +6003,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>190</v>
       </c>
       <c r="B184">
-        <v>0.7970588235294118</v>
+        <v>0.79705882352941182</v>
       </c>
       <c r="C184">
-        <v>0.01176470588235294</v>
+        <v>1.1764705882352939E-2</v>
       </c>
       <c r="D184">
-        <v>0.1911764705882353</v>
+        <v>0.19117647058823531</v>
       </c>
       <c r="E184" t="s">
         <v>258</v>
@@ -5977,7 +6029,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>191</v>
       </c>
@@ -6003,18 +6055,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>192</v>
       </c>
       <c r="B186">
-        <v>0.4825928665920794</v>
+        <v>0.48259286659207939</v>
       </c>
       <c r="C186">
         <v>0.1790421976756475</v>
       </c>
       <c r="D186">
-        <v>0.3383649357322731</v>
+        <v>0.33836493573227311</v>
       </c>
       <c r="E186" t="s">
         <v>258</v>
@@ -6029,18 +6081,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>193</v>
       </c>
       <c r="B187">
-        <v>0.7725563909774437</v>
+        <v>0.77255639097744366</v>
       </c>
       <c r="C187">
-        <v>0.003759398496240601</v>
+        <v>3.7593984962406009E-3</v>
       </c>
       <c r="D187">
-        <v>0.2236842105263158</v>
+        <v>0.22368421052631579</v>
       </c>
       <c r="E187" t="s">
         <v>258</v>
@@ -6055,18 +6107,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>194</v>
       </c>
       <c r="B188">
-        <v>0.7951807228915663</v>
+        <v>0.79518072289156627</v>
       </c>
       <c r="C188">
-        <v>0.01204819277108434</v>
+        <v>1.204819277108434E-2</v>
       </c>
       <c r="D188">
-        <v>0.1927710843373494</v>
+        <v>0.19277108433734941</v>
       </c>
       <c r="E188" t="s">
         <v>258</v>
@@ -6081,18 +6133,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>195</v>
       </c>
       <c r="B189">
-        <v>0.7453769559032717</v>
+        <v>0.74537695590327169</v>
       </c>
       <c r="C189">
-        <v>0.01564722617354196</v>
+        <v>1.5647226173541959E-2</v>
       </c>
       <c r="D189">
-        <v>0.2389758179231863</v>
+        <v>0.23897581792318631</v>
       </c>
       <c r="E189" t="s">
         <v>258</v>
@@ -6107,7 +6159,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>196</v>
       </c>
@@ -6133,18 +6185,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>197</v>
       </c>
       <c r="B191">
-        <v>0.7747914735866543</v>
+        <v>0.77479147358665434</v>
       </c>
       <c r="C191">
-        <v>0.007414272474513438</v>
+        <v>7.4142724745134376E-3</v>
       </c>
       <c r="D191">
-        <v>0.2177942539388323</v>
+        <v>0.21779425393883231</v>
       </c>
       <c r="E191" t="s">
         <v>258</v>
@@ -6159,18 +6211,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>198</v>
       </c>
       <c r="B192">
-        <v>0.7404661016949152</v>
+        <v>0.74046610169491522</v>
       </c>
       <c r="C192">
-        <v>0.003001412429378531</v>
+        <v>3.0014124293785312E-3</v>
       </c>
       <c r="D192">
-        <v>0.2565324858757062</v>
+        <v>0.25653248587570621</v>
       </c>
       <c r="E192" t="s">
         <v>258</v>
@@ -6185,18 +6237,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>199</v>
       </c>
       <c r="B193">
-        <v>0.7685589519650655</v>
+        <v>0.76855895196506552</v>
       </c>
       <c r="C193">
-        <v>0.00277888050813815</v>
+        <v>2.7788805081381501E-3</v>
       </c>
       <c r="D193">
-        <v>0.2286621675267964</v>
+        <v>0.22866216752679641</v>
       </c>
       <c r="E193" t="s">
         <v>258</v>
@@ -6211,18 +6263,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>200</v>
       </c>
       <c r="B194">
-        <v>0.6427573358174197</v>
+        <v>0.64275733581741967</v>
       </c>
       <c r="C194">
-        <v>0.003726129482999534</v>
+        <v>3.7261294829995339E-3</v>
       </c>
       <c r="D194">
-        <v>0.3535165346995808</v>
+        <v>0.35351653469958078</v>
       </c>
       <c r="E194" t="s">
         <v>258</v>
@@ -6237,12 +6289,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>201</v>
       </c>
       <c r="B195">
-        <v>0.8857142857142857</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -6263,18 +6315,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>202</v>
       </c>
       <c r="B196">
-        <v>0.7438016528925619</v>
+        <v>0.74380165289256195</v>
       </c>
       <c r="C196">
-        <v>0.001458434613514827</v>
+        <v>1.458434613514827E-3</v>
       </c>
       <c r="D196">
-        <v>0.2547399124939232</v>
+        <v>0.25473991249392319</v>
       </c>
       <c r="E196" t="s">
         <v>258</v>
@@ -6289,7 +6341,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>203</v>
       </c>
@@ -6300,7 +6352,7 @@
         <v>0.181185475258099</v>
       </c>
       <c r="D197">
-        <v>0.323563545745817</v>
+        <v>0.32356354574581703</v>
       </c>
       <c r="E197" t="s">
         <v>258</v>
@@ -6315,15 +6367,15 @@
         <v>267</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>204</v>
       </c>
       <c r="B198">
-        <v>0.7229943145925458</v>
+        <v>0.72299431459254582</v>
       </c>
       <c r="C198">
-        <v>0.003790271636133923</v>
+        <v>3.7902716361339229E-3</v>
       </c>
       <c r="D198">
         <v>0.2732154137713203</v>
@@ -6341,12 +6393,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>205</v>
       </c>
       <c r="B199">
-        <v>0.8198198198198198</v>
+        <v>0.81981981981981977</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -6367,18 +6419,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>206</v>
       </c>
       <c r="B200">
-        <v>0.8099547511312217</v>
+        <v>0.80995475113122173</v>
       </c>
       <c r="C200">
-        <v>0.004524886877828055</v>
+        <v>4.5248868778280547E-3</v>
       </c>
       <c r="D200">
-        <v>0.1855203619909502</v>
+        <v>0.18552036199095021</v>
       </c>
       <c r="E200" t="s">
         <v>258</v>
@@ -6393,18 +6445,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>207</v>
       </c>
       <c r="B201">
-        <v>0.7856677524429967</v>
+        <v>0.78566775244299669</v>
       </c>
       <c r="C201">
-        <v>0.0006514657980456026</v>
+        <v>6.5146579804560263E-4</v>
       </c>
       <c r="D201">
-        <v>0.2136807817589577</v>
+        <v>0.21368078175895769</v>
       </c>
       <c r="E201" t="s">
         <v>258</v>
@@ -6419,18 +6471,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>208</v>
       </c>
       <c r="B202">
-        <v>0.785438499724214</v>
+        <v>0.78543849972421398</v>
       </c>
       <c r="C202">
-        <v>0.03309431880860452</v>
+        <v>3.3094318808604521E-2</v>
       </c>
       <c r="D202">
-        <v>0.1814671814671815</v>
+        <v>0.18146718146718149</v>
       </c>
       <c r="E202" t="s">
         <v>258</v>
@@ -6445,7 +6497,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -6453,7 +6505,7 @@
         <v>0.7847612359550562</v>
       </c>
       <c r="C203">
-        <v>0.02176966292134832</v>
+        <v>2.1769662921348319E-2</v>
       </c>
       <c r="D203">
         <v>0.1934691011235955</v>
@@ -6471,18 +6523,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>210</v>
       </c>
       <c r="B204">
-        <v>0.7659327925840093</v>
+        <v>0.76593279258400926</v>
       </c>
       <c r="C204">
-        <v>0.03012746234067207</v>
+        <v>3.0127462340672071E-2</v>
       </c>
       <c r="D204">
-        <v>0.2039397450753186</v>
+        <v>0.20393974507531859</v>
       </c>
       <c r="E204" t="s">
         <v>258</v>
@@ -6497,18 +6549,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>211</v>
       </c>
       <c r="B205">
-        <v>0.7817576009995835</v>
+        <v>0.78175760099958347</v>
       </c>
       <c r="C205">
-        <v>0.009579341940857976</v>
+        <v>9.5793419408579765E-3</v>
       </c>
       <c r="D205">
-        <v>0.2086630570595585</v>
+        <v>0.20866305705955851</v>
       </c>
       <c r="E205" t="s">
         <v>258</v>
@@ -6523,15 +6575,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>212</v>
       </c>
       <c r="B206">
-        <v>0.764404609475032</v>
+        <v>0.76440460947503197</v>
       </c>
       <c r="C206">
-        <v>0.03201024327784891</v>
+        <v>3.2010243277848911E-2</v>
       </c>
       <c r="D206">
         <v>0.2035851472471191</v>
@@ -6549,18 +6601,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>213</v>
       </c>
       <c r="B207">
-        <v>0.770172509738453</v>
+        <v>0.77017250973845297</v>
       </c>
       <c r="C207">
-        <v>0.03283249860879243</v>
+        <v>3.2832498608792428E-2</v>
       </c>
       <c r="D207">
-        <v>0.1969949916527546</v>
+        <v>0.19699499165275461</v>
       </c>
       <c r="E207" t="s">
         <v>258</v>
@@ -6575,18 +6627,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>214</v>
       </c>
       <c r="B208">
-        <v>0.5174390649850206</v>
+        <v>0.51743906498502057</v>
       </c>
       <c r="C208">
-        <v>0.143887476949577</v>
+        <v>0.14388747694957699</v>
       </c>
       <c r="D208">
-        <v>0.3386734580654024</v>
+        <v>0.33867345806540239</v>
       </c>
       <c r="E208" t="s">
         <v>258</v>
@@ -6601,18 +6653,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>215</v>
       </c>
       <c r="B209">
-        <v>0.7748156551332955</v>
+        <v>0.77481565513329553</v>
       </c>
       <c r="C209">
-        <v>0.03119682359614294</v>
+        <v>3.1196823596142939E-2</v>
       </c>
       <c r="D209">
-        <v>0.1939875212705615</v>
+        <v>0.19398752127056151</v>
       </c>
       <c r="E209" t="s">
         <v>258</v>
@@ -6627,7 +6679,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -6635,10 +6687,10 @@
         <v>0.7596964586846543</v>
       </c>
       <c r="C210">
-        <v>0.04806070826306914</v>
+        <v>4.8060708263069143E-2</v>
       </c>
       <c r="D210">
-        <v>0.1922428330522765</v>
+        <v>0.19224283305227649</v>
       </c>
       <c r="E210" t="s">
         <v>258</v>
@@ -6653,18 +6705,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>217</v>
       </c>
       <c r="B211">
-        <v>0.7651912978244562</v>
+        <v>0.76519129782445616</v>
       </c>
       <c r="C211">
-        <v>0.04576144036009002</v>
+        <v>4.5761440360090021E-2</v>
       </c>
       <c r="D211">
-        <v>0.1890472618154539</v>
+        <v>0.18904726181545389</v>
       </c>
       <c r="E211" t="s">
         <v>258</v>
@@ -6679,15 +6731,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>218</v>
       </c>
       <c r="B212">
-        <v>0.7756613756613756</v>
+        <v>0.77566137566137561</v>
       </c>
       <c r="C212">
-        <v>0.03015873015873016</v>
+        <v>3.0158730158730159E-2</v>
       </c>
       <c r="D212">
         <v>0.1941798941798942</v>
@@ -6705,15 +6757,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>219</v>
       </c>
       <c r="B213">
-        <v>0.7756613756613756</v>
+        <v>0.77566137566137561</v>
       </c>
       <c r="C213">
-        <v>0.03015873015873016</v>
+        <v>3.0158730158730159E-2</v>
       </c>
       <c r="D213">
         <v>0.1941798941798942</v>
@@ -6731,18 +6783,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>220</v>
       </c>
       <c r="B214">
-        <v>0.7862780813600486</v>
+        <v>0.78627808136004862</v>
       </c>
       <c r="C214">
-        <v>0.03217972070431087</v>
+        <v>3.2179720704310869E-2</v>
       </c>
       <c r="D214">
-        <v>0.1815421979356406</v>
+        <v>0.18154219793564061</v>
       </c>
       <c r="E214" t="s">
         <v>258</v>
@@ -6757,18 +6809,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>221</v>
       </c>
       <c r="B215">
-        <v>0.7829727843684577</v>
+        <v>0.78297278436845774</v>
       </c>
       <c r="C215">
-        <v>0.02163293789253315</v>
+        <v>2.1632937892533149E-2</v>
       </c>
       <c r="D215">
-        <v>0.1953942777390091</v>
+        <v>0.19539427773900911</v>
       </c>
       <c r="E215" t="s">
         <v>258</v>
@@ -6783,18 +6835,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>222</v>
       </c>
       <c r="B216">
-        <v>0.7934027777777778</v>
+        <v>0.79340277777777779</v>
       </c>
       <c r="C216">
-        <v>0.02647569444444444</v>
+        <v>2.6475694444444441E-2</v>
       </c>
       <c r="D216">
-        <v>0.1801215277777778</v>
+        <v>0.18012152777777779</v>
       </c>
       <c r="E216" t="s">
         <v>258</v>
@@ -6809,18 +6861,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>223</v>
       </c>
       <c r="B217">
-        <v>0.7699600798403193</v>
+        <v>0.76996007984031933</v>
       </c>
       <c r="C217">
-        <v>0.03642714570858283</v>
+        <v>3.6427145708582832E-2</v>
       </c>
       <c r="D217">
-        <v>0.1936127744510978</v>
+        <v>0.19361277445109781</v>
       </c>
       <c r="E217" t="s">
         <v>258</v>
@@ -6835,24 +6887,24 @@
         <v>269</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>224</v>
       </c>
       <c r="B218">
-        <v>0.4657177926078863</v>
+        <v>0.46571779260788632</v>
       </c>
       <c r="C218">
-        <v>0.1927810246864408</v>
+        <v>0.19278102468644079</v>
       </c>
       <c r="D218">
-        <v>0.3415011827056729</v>
+        <v>0.34150118270567292</v>
       </c>
       <c r="E218" t="s">
         <v>258</v>
       </c>
       <c r="F218" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G218" t="s">
         <v>262</v>
@@ -6861,24 +6913,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>225</v>
       </c>
       <c r="B219">
-        <v>0.5661897779363003</v>
+        <v>0.56618977793630032</v>
       </c>
       <c r="C219">
-        <v>0.09388859466139218</v>
+        <v>9.3888594661392183E-2</v>
       </c>
       <c r="D219">
-        <v>0.3399216274023075</v>
+        <v>0.33992162740230752</v>
       </c>
       <c r="E219" t="s">
         <v>258</v>
       </c>
       <c r="F219" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G219" t="s">
         <v>262</v>
@@ -6887,24 +6939,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>226</v>
       </c>
       <c r="B220">
-        <v>0.4774425147957699</v>
+        <v>0.47744251479576988</v>
       </c>
       <c r="C220">
         <v>0.1861319043816376</v>
       </c>
       <c r="D220">
-        <v>0.3364255808225926</v>
+        <v>0.33642558082259261</v>
       </c>
       <c r="E220" t="s">
         <v>258</v>
       </c>
       <c r="F220" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G220" t="s">
         <v>262</v>
@@ -6913,24 +6965,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>227</v>
       </c>
       <c r="B221">
-        <v>0.4720767854589856</v>
+        <v>0.47207678545898563</v>
       </c>
       <c r="C221">
-        <v>0.1877132446415944</v>
+        <v>0.18771324464159439</v>
       </c>
       <c r="D221">
-        <v>0.34020996989942</v>
+        <v>0.34020996989941998</v>
       </c>
       <c r="E221" t="s">
         <v>258</v>
       </c>
       <c r="F221" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G221" t="s">
         <v>262</v>
@@ -6939,24 +6991,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>228</v>
       </c>
       <c r="B222">
-        <v>0.4689571089158435</v>
+        <v>0.46895710891584352</v>
       </c>
       <c r="C222">
         <v>0.1897117669125922</v>
       </c>
       <c r="D222">
-        <v>0.3413311241715644</v>
+        <v>0.34133112417156442</v>
       </c>
       <c r="E222" t="s">
         <v>258</v>
       </c>
       <c r="F222" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G222" t="s">
         <v>262</v>
@@ -6965,12 +7017,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>229</v>
       </c>
       <c r="B223">
-        <v>0.4461382762424895</v>
+        <v>0.44613827624248947</v>
       </c>
       <c r="C223">
         <v>0.2131538398417199</v>
@@ -6982,7 +7034,7 @@
         <v>258</v>
       </c>
       <c r="F223" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G223" t="s">
         <v>262</v>
@@ -6991,24 +7043,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>230</v>
       </c>
       <c r="B224">
-        <v>0.4634425826506903</v>
+        <v>0.46344258265069033</v>
       </c>
       <c r="C224">
         <v>0.1909788030419578</v>
       </c>
       <c r="D224">
-        <v>0.3455786143073519</v>
+        <v>0.34557861430735187</v>
       </c>
       <c r="E224" t="s">
         <v>258</v>
       </c>
       <c r="F224" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G224" t="s">
         <v>262</v>
@@ -7017,24 +7069,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>231</v>
       </c>
       <c r="B225">
-        <v>0.5079613023128539</v>
+        <v>0.50796130231285386</v>
       </c>
       <c r="C225">
-        <v>0.1667740335554783</v>
+        <v>0.16677403355547829</v>
       </c>
       <c r="D225">
-        <v>0.3252646641316679</v>
+        <v>0.32526466413166788</v>
       </c>
       <c r="E225" t="s">
         <v>258</v>
       </c>
       <c r="F225" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G225" t="s">
         <v>262</v>
@@ -7043,24 +7095,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>232</v>
       </c>
       <c r="B226">
-        <v>0.4675593167164743</v>
+        <v>0.46755931671647433</v>
       </c>
       <c r="C226">
-        <v>0.1919452343508042</v>
+        <v>0.19194523435080421</v>
       </c>
       <c r="D226">
-        <v>0.3404954489327214</v>
+        <v>0.34049544893272138</v>
       </c>
       <c r="E226" t="s">
         <v>258</v>
       </c>
       <c r="F226" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G226" t="s">
         <v>262</v>
@@ -7069,24 +7121,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>233</v>
       </c>
       <c r="B227">
-        <v>0.5790195388633101</v>
+        <v>0.57901953886331015</v>
       </c>
       <c r="C227">
-        <v>0.1278692650008089</v>
+        <v>0.12786926500080889</v>
       </c>
       <c r="D227">
-        <v>0.293111196135881</v>
+        <v>0.29311119613588099</v>
       </c>
       <c r="E227" t="s">
         <v>258</v>
       </c>
       <c r="F227" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G227" t="s">
         <v>262</v>
@@ -7095,15 +7147,15 @@
         <v>267</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>234</v>
       </c>
       <c r="B228">
-        <v>0.4610990161536928</v>
+        <v>0.46109901615369281</v>
       </c>
       <c r="C228">
-        <v>0.199519710164196</v>
+        <v>0.19951971016419601</v>
       </c>
       <c r="D228">
         <v>0.3393812736821113</v>
@@ -7112,7 +7164,7 @@
         <v>258</v>
       </c>
       <c r="F228" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G228" t="s">
         <v>262</v>
@@ -7121,18 +7173,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>235</v>
       </c>
       <c r="B229">
-        <v>0.4482071799028252</v>
+        <v>0.44820717990282521</v>
       </c>
       <c r="C229">
         <v>0.2031747810978948</v>
       </c>
       <c r="D229">
-        <v>0.34861803899928</v>
+        <v>0.34861803899928001</v>
       </c>
       <c r="E229" t="s">
         <v>258</v>
@@ -7147,7 +7199,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>236</v>
       </c>
@@ -7158,7 +7210,7 @@
         <v>0.158402759047062</v>
       </c>
       <c r="D230">
-        <v>0.3455961014519546</v>
+        <v>0.34559610145195457</v>
       </c>
       <c r="E230" t="s">
         <v>258</v>
@@ -7173,15 +7225,15 @@
         <v>267</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>237</v>
       </c>
       <c r="B231">
-        <v>0.4733555534543621</v>
+        <v>0.47335555345436209</v>
       </c>
       <c r="C231">
-        <v>0.1884809947049924</v>
+        <v>0.18848099470499241</v>
       </c>
       <c r="D231">
         <v>0.3381634518406455</v>
@@ -7190,7 +7242,7 @@
         <v>258</v>
       </c>
       <c r="F231" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G231" t="s">
         <v>262</v>
@@ -7199,24 +7251,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>238</v>
       </c>
       <c r="B232">
-        <v>0.5017387527751709</v>
+        <v>0.50173875277517088</v>
       </c>
       <c r="C232">
-        <v>0.1584831394130456</v>
+        <v>0.15848313941304559</v>
       </c>
       <c r="D232">
-        <v>0.3397781078117834</v>
+        <v>0.33977810781178341</v>
       </c>
       <c r="E232" t="s">
         <v>258</v>
       </c>
       <c r="F232" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G232" t="s">
         <v>262</v>
@@ -7225,24 +7277,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>239</v>
       </c>
       <c r="B233">
-        <v>0.5322346537010392</v>
+        <v>0.53223465370103917</v>
       </c>
       <c r="C233">
         <v>0.1242703147942556</v>
       </c>
       <c r="D233">
-        <v>0.3434950315047052</v>
+        <v>0.34349503150470517</v>
       </c>
       <c r="E233" t="s">
         <v>258</v>
       </c>
       <c r="F233" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G233" t="s">
         <v>262</v>
@@ -7251,24 +7303,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>240</v>
       </c>
       <c r="B234">
-        <v>0.5031952669917671</v>
+        <v>0.50319526699176709</v>
       </c>
       <c r="C234">
-        <v>0.1564099913657866</v>
+        <v>0.15640999136578659</v>
       </c>
       <c r="D234">
-        <v>0.3403947416424463</v>
+        <v>0.34039474164244632</v>
       </c>
       <c r="E234" t="s">
         <v>258</v>
       </c>
       <c r="F234" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G234" t="s">
         <v>262</v>
@@ -7277,24 +7329,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>241</v>
       </c>
       <c r="B235">
-        <v>0.4925271262446816</v>
+        <v>0.49252712624468159</v>
       </c>
       <c r="C235">
-        <v>0.1695733158126392</v>
+        <v>0.16957331581263921</v>
       </c>
       <c r="D235">
-        <v>0.3378995579426793</v>
+        <v>0.33789955794267929</v>
       </c>
       <c r="E235" t="s">
         <v>258</v>
       </c>
       <c r="F235" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G235" t="s">
         <v>262</v>
@@ -7303,24 +7355,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>242</v>
       </c>
       <c r="B236">
-        <v>0.5156362075194111</v>
+        <v>0.51563620751941108</v>
       </c>
       <c r="C236">
-        <v>0.1512887502028807</v>
+        <v>0.15128875020288071</v>
       </c>
       <c r="D236">
-        <v>0.3330750422777082</v>
+        <v>0.33307504227770818</v>
       </c>
       <c r="E236" t="s">
         <v>258</v>
       </c>
       <c r="F236" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G236" t="s">
         <v>262</v>
@@ -7329,18 +7381,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>243</v>
       </c>
       <c r="B237">
-        <v>0.5060509911832426</v>
+        <v>0.50605099118324259</v>
       </c>
       <c r="C237">
-        <v>0.1609282866288538</v>
+        <v>0.16092828662885381</v>
       </c>
       <c r="D237">
-        <v>0.3330207221879036</v>
+        <v>0.33302072218790357</v>
       </c>
       <c r="E237" t="s">
         <v>258</v>
@@ -7355,12 +7407,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>244</v>
       </c>
       <c r="B238">
-        <v>0.4818414396393654</v>
+        <v>0.48184143963936538</v>
       </c>
       <c r="C238">
         <v>0.1789511447394169</v>
@@ -7381,18 +7433,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>245</v>
       </c>
       <c r="B239">
-        <v>0.4666076623577646</v>
+        <v>0.46660766235776457</v>
       </c>
       <c r="C239">
-        <v>0.1921661857683195</v>
+        <v>0.19216618576831951</v>
       </c>
       <c r="D239">
-        <v>0.341226151873916</v>
+        <v>0.34122615187391597</v>
       </c>
       <c r="E239" t="s">
         <v>258</v>
@@ -7407,18 +7459,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>246</v>
       </c>
       <c r="B240">
-        <v>0.5051691834765634</v>
+        <v>0.50516918347656337</v>
       </c>
       <c r="C240">
-        <v>0.151193708349227</v>
+        <v>0.15119370834922699</v>
       </c>
       <c r="D240">
-        <v>0.3436371081742096</v>
+        <v>0.34363710817420962</v>
       </c>
       <c r="E240" t="s">
         <v>258</v>
@@ -7433,15 +7485,15 @@
         <v>267</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>247</v>
       </c>
       <c r="B241">
-        <v>0.5206705092534508</v>
+        <v>0.52067050925345082</v>
       </c>
       <c r="C241">
-        <v>0.1391695387665838</v>
+        <v>0.13916953876658381</v>
       </c>
       <c r="D241">
         <v>0.3401599519799654</v>
@@ -7459,18 +7511,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>248</v>
       </c>
       <c r="B242">
-        <v>0.5154680159016986</v>
+        <v>0.51546801590169855</v>
       </c>
       <c r="C242">
-        <v>0.147196551190046</v>
+        <v>0.14719655119004599</v>
       </c>
       <c r="D242">
-        <v>0.3373354329082555</v>
+        <v>0.33733543290825552</v>
       </c>
       <c r="E242" t="s">
         <v>258</v>
@@ -7485,18 +7537,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>249</v>
       </c>
       <c r="B243">
-        <v>0.5233450222001239</v>
+        <v>0.52334502220012391</v>
       </c>
       <c r="C243">
-        <v>0.1350696534338227</v>
+        <v>0.13506965343382271</v>
       </c>
       <c r="D243">
-        <v>0.3415853243660534</v>
+        <v>0.34158532436605338</v>
       </c>
       <c r="E243" t="s">
         <v>258</v>
@@ -7511,18 +7563,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>250</v>
       </c>
       <c r="B244">
-        <v>0.5217571884984026</v>
+        <v>0.52175718849840258</v>
       </c>
       <c r="C244">
         <v>0.1515777832391251</v>
       </c>
       <c r="D244">
-        <v>0.3266650282624723</v>
+        <v>0.32666502826247229</v>
       </c>
       <c r="E244" t="s">
         <v>258</v>
@@ -7537,18 +7589,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>251</v>
       </c>
       <c r="B245">
-        <v>0.5336091935371183</v>
+        <v>0.53360919353711833</v>
       </c>
       <c r="C245">
         <v>0.1397083184021744</v>
       </c>
       <c r="D245">
-        <v>0.3266824880607073</v>
+        <v>0.32668248806070732</v>
       </c>
       <c r="E245" t="s">
         <v>258</v>
@@ -7563,18 +7615,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>252</v>
       </c>
       <c r="B246">
-        <v>0.5327975055119181</v>
+        <v>0.53279750551191807</v>
       </c>
       <c r="C246">
-        <v>0.1298412482635865</v>
+        <v>0.12984124826358651</v>
       </c>
       <c r="D246">
-        <v>0.3373612462244954</v>
+        <v>0.33736124622449543</v>
       </c>
       <c r="E246" t="s">
         <v>258</v>
@@ -7589,18 +7641,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>253</v>
       </c>
       <c r="B247">
-        <v>0.4768689692488051</v>
+        <v>0.47686896924880512</v>
       </c>
       <c r="C247">
-        <v>0.1815425196140319</v>
+        <v>0.18154251961403189</v>
       </c>
       <c r="D247">
-        <v>0.3415885111371629</v>
+        <v>0.34158851113716288</v>
       </c>
       <c r="E247" t="s">
         <v>258</v>
@@ -7615,12 +7667,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>254</v>
       </c>
       <c r="B248">
-        <v>0.5149058470703444</v>
+        <v>0.51490584707034437</v>
       </c>
       <c r="C248">
         <v>0.1525879304716827</v>
@@ -7641,18 +7693,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>255</v>
       </c>
       <c r="B249">
-        <v>0.4939784225527061</v>
+        <v>0.49397842255270608</v>
       </c>
       <c r="C249">
-        <v>0.1610529843472807</v>
+        <v>0.16105298434728069</v>
       </c>
       <c r="D249">
-        <v>0.3449685931000132</v>
+        <v>0.34496859310001321</v>
       </c>
       <c r="E249" t="s">
         <v>258</v>
@@ -7667,15 +7719,15 @@
         <v>267</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>256</v>
       </c>
       <c r="B250">
-        <v>0.4814323844370045</v>
+        <v>0.48143238443700448</v>
       </c>
       <c r="C250">
-        <v>0.177936820440992</v>
+        <v>0.17793682044099199</v>
       </c>
       <c r="D250">
         <v>0.3406307951220035</v>
@@ -7693,18 +7745,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>257</v>
       </c>
       <c r="B251">
-        <v>0.758819756254009</v>
+        <v>0.75881975625400899</v>
       </c>
       <c r="C251">
-        <v>0.03078896728672226</v>
+        <v>3.0788967286722261E-2</v>
       </c>
       <c r="D251">
-        <v>0.2103912764592688</v>
+        <v>0.21039127645926881</v>
       </c>
       <c r="E251" t="s">
         <v>258</v>
